--- a/Faculty.xlsx
+++ b/Faculty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Awais\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEW-NETBEANS-PROJECTS(O-O-P)\fyp\FinalYearProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56F2BD-D99F-411D-8D41-1F1B82BE7A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EC33C-A2B8-406A-A59E-3AB3F43A786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9D0AF40C-9F38-4C99-8FE5-CDC75089D3F8}"/>
   </bookViews>
@@ -27,82 +27,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
+    <t>1,A</t>
+  </si>
+  <si>
+    <t>2,B</t>
+  </si>
+  <si>
+    <t>3,C</t>
+  </si>
+  <si>
+    <t>4,D</t>
+  </si>
+  <si>
+    <t>5,E</t>
+  </si>
+  <si>
+    <t>6,F</t>
+  </si>
+  <si>
+    <t>7,G</t>
+  </si>
+  <si>
+    <t>8,H</t>
+  </si>
+  <si>
+    <t>9,I</t>
+  </si>
+  <si>
+    <t>10,J</t>
+  </si>
+  <si>
+    <t>11,K</t>
+  </si>
+  <si>
+    <t>12,L</t>
+  </si>
+  <si>
+    <t>13,M</t>
+  </si>
+  <si>
+    <t>14,N</t>
+  </si>
+  <si>
+    <t>15,O</t>
+  </si>
+  <si>
+    <t>16,P</t>
+  </si>
+  <si>
+    <t>17,Q</t>
+  </si>
+  <si>
+    <t>18,R</t>
+  </si>
+  <si>
+    <t>19,S</t>
+  </si>
+  <si>
+    <t>20,T</t>
+  </si>
+  <si>
+    <t>21,U</t>
+  </si>
+  <si>
+    <t>22,V</t>
+  </si>
+  <si>
+    <t>23,W</t>
+  </si>
+  <si>
+    <t>24,X</t>
+  </si>
+  <si>
+    <t>25,Y</t>
+  </si>
+  <si>
+    <t>26,Z</t>
   </si>
 </sst>
 </file>
@@ -454,219 +454,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AB09B-B5AA-40DA-8738-D3F13CFEF551}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
